--- a/eoms-front/public/static/历年职位权限导入模板.xlsx
+++ b/eoms-front/public/static/历年职位权限导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="职位1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>作业代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>撤销审核</t>
+  </si>
+  <si>
+    <t>作废</t>
+  </si>
+  <si>
+    <t>撤销作废</t>
+  </si>
+  <si>
+    <t>过账</t>
+  </si>
+  <si>
+    <t>撤销过账</t>
+  </si>
+  <si>
+    <t>打印</t>
+  </si>
+  <si>
+    <t>数据导出</t>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -50,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,10 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,19 +411,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -379,20 +476,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/eoms-front/public/static/历年职位权限导入模板.xlsx
+++ b/eoms-front/public/static/历年职位权限导入模板.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="职位1" sheetId="1" r:id="rId1"/>
-    <sheet name="职位2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,57 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>撤销审核</t>
+  </si>
+  <si>
+    <t>作废</t>
+  </si>
+  <si>
+    <t>撤销作废</t>
+  </si>
+  <si>
+    <t>过账</t>
+  </si>
+  <si>
+    <t>撤销过账</t>
+  </si>
+  <si>
+    <t>打印</t>
+  </si>
+  <si>
+    <t>数据导出</t>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>作业代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核</t>
-  </si>
-  <si>
-    <t>撤销审核</t>
-  </si>
-  <si>
-    <t>作废</t>
-  </si>
-  <si>
-    <t>撤销作废</t>
-  </si>
-  <si>
-    <t>过账</t>
-  </si>
-  <si>
-    <t>撤销过账</t>
-  </si>
-  <si>
-    <t>打印</t>
-  </si>
-  <si>
-    <t>数据导出</t>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业代码</t>
+    <t>职位代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,133 +410,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
